--- a/biology/Botanique/Liste_de_roses/Liste_de_roses.xlsx
+++ b/biology/Botanique/Liste_de_roses/Liste_de_roses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste de roses a pour objet de présenter toutes les formes et cultivars décrits dans l'encyclopédie. Les informations générales sur la rose et les rosiers (genre Rosa et ses différentes espèces) sont disponibles dans les articles dédiés. Les liens sous les images renvoient vers des articles décrivant les formes et cultivars illustrés.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grimpants miniatures
-Grimpants
-Veilchenblau, J. C. Schmidt 1909
-À fleurs groupées
-À grandes fleurs
-Lianes</t>
+          <t>Grimpants</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Veilchenblau, J. C. Schmidt 1909</t>
         </is>
       </c>
     </row>
@@ -543,16 +556,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Grimpants remontants</t>
+          <t>Autres remontants</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grimpants miniatures
-Grimpants
-À fleurs groupées
-À grandes fleurs
-Lianes</t>
+          <t>Buissons</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>À fleurs groupées (souvent nommés floribunda)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Centenaire de Lourdes, Delbard 1958</t>
         </is>
       </c>
     </row>
@@ -577,15 +596,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Autres non remontants</t>
+          <t>Autres remontants</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Couvre-sols
-Arbustes
-À fleurs groupées
-À grandes fleurs</t>
+          <t>Buissons</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>À grandes fleurs (souvent nommés hybrides de thé)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Soleil d'or
+Papa Meilland
+La France
+Madame Antoine Meilland</t>
         </is>
       </c>
     </row>
@@ -615,23 +644,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miniatures
-Buissons
-Nains à fleurs groupées
-Polyanthas
-À fleurs groupées (souvent nommés floribunda)
-Centenaire de Lourdes, Delbard 1958
-À grandes fleurs (souvent nommés hybrides de thé)
-Soleil d'or
-Papa Meilland
-La France
-Madame Antoine Meilland
-Arbustes
-Nevada
-À fleurs groupées
-À grandes fleurs
-Couvre-sols
- Portail des roses et rosiers                     </t>
+          <t>Arbustes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_roses</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roses</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Autres remontants</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Couvre-sols</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portail des roses et rosiers                     </t>
         </is>
       </c>
     </row>
